--- a/sesnorVar.xlsx
+++ b/sesnorVar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21675" windowHeight="11790"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -31,8 +31,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -44,9 +44,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -56,82 +55,6 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,11 +80,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,8 +118,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,187 +197,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,17 +391,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -423,11 +426,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,24 +444,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,9 +465,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,10 +496,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -508,138 +508,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -747,6 +750,7 @@
               <a:rPr altLang="en-US"/>
               <a:t>的方差</a:t>
             </a:r>
+            <a:endParaRPr altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -796,104 +800,166 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>data!$A$3:$A$16</c:f>
+              <c:f>data!$A$8:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>-31120</c:v>
+                  <c:v>-25043</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-29490</c:v>
+                  <c:v>-24650</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-28000</c:v>
+                  <c:v>-23393</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-26570</c:v>
+                  <c:v>-21456</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-25260</c:v>
+                  <c:v>-17444</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-25043</c:v>
+                  <c:v>-14116</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-24650</c:v>
+                  <c:v>-10386</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-23393</c:v>
+                  <c:v>-6409</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-21456</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-17444</c:v>
+                  <c:v>6409</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-14116</c:v>
+                  <c:v>10386</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-10386</c:v>
+                  <c:v>14116</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-6409</c:v>
+                  <c:v>17444</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>21456</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23393</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24650</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data!$B$3:$B$16</c:f>
+              <c:f>data!$B$8:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>165</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>138</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>125</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -955,6 +1021,7 @@
                   <a:rPr lang="en-US" altLang="zh-CN"/>
                   <a:t>B/mGs</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1993,10 +2060,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2126,7 +2193,114 @@
         <v>9</v>
       </c>
     </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>6409</v>
+      </c>
+      <c r="B17" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>10386</v>
+      </c>
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>14116</v>
+      </c>
+      <c r="B19" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>17444</v>
+      </c>
+      <c r="B20" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>21456</v>
+      </c>
+      <c r="B21" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>23393</v>
+      </c>
+      <c r="B22" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>24650</v>
+      </c>
+      <c r="B23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>25043</v>
+      </c>
+      <c r="B24" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>25260</v>
+      </c>
+      <c r="B25" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>26570</v>
+      </c>
+      <c r="B26" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>28000</v>
+      </c>
+      <c r="B27" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>29490</v>
+      </c>
+      <c r="B28" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
+        <v>31120</v>
+      </c>
+      <c r="B29" s="1">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A17:B29">
+    <sortCondition ref="A17" descending="1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/sesnorVar.xlsx
+++ b/sesnorVar.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="原始数据" sheetId="1" r:id="rId1"/>
+    <sheet name="平滑后" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Bz-5</t>
   </si>
@@ -24,18 +25,28 @@
   <si>
     <t>Bvar</t>
   </si>
+  <si>
+    <t>B增大后方差变得不稳定</t>
+  </si>
+  <si>
+    <t>from filterpy.kalman import FixedLagSmoother as FLS
+fls = FLS(dim_x=SLAVES * 3, dim_z=SLAVES * 3, N=20)
+fls.P *= 200
+fls.R *= 50
+fls.Q *= 0.5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,8 +55,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF57BACD"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -58,25 +111,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -87,8 +126,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,14 +136,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -118,31 +188,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,37 +206,34 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,43 +242,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor theme="9" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,25 +422,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,114 +446,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -391,11 +466,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="9" tint="0.399975585192419"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.399975585192419"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -434,16 +552,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,26 +583,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,10 +597,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -508,141 +609,183 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -846,7 +989,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>data!$A$8:$A$24</c:f>
+              <c:f>原始数据!$A$8:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -906,7 +1049,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data!$B$8:$B$24</c:f>
+              <c:f>原始数据!$B$8:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1771,15 +1914,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>278765</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393065</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -1788,8 +1931,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2432050" y="1339850"/>
-        <a:ext cx="5390515" cy="3505200"/>
+        <a:off x="3917950" y="1003300"/>
+        <a:ext cx="5390515" cy="4438650"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2060,242 +2203,249 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" ht="17" customHeight="1" spans="1:1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" ht="17" customHeight="1" spans="1:2">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+    <row r="3" ht="17" customHeight="1" spans="1:2">
+      <c r="A3" s="6">
         <v>-31120</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
+    <row r="4" ht="17" customHeight="1" spans="1:2">
+      <c r="A4" s="8">
         <v>-29490</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="9">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
+    <row r="5" ht="17" customHeight="1" spans="1:2">
+      <c r="A5" s="6">
         <v>-28000</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
+    <row r="6" ht="17" customHeight="1" spans="1:2">
+      <c r="A6" s="8">
         <v>-26570</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="9">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
+    <row r="7" ht="17" customHeight="1" spans="1:2">
+      <c r="A7" s="6">
         <v>-25260</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
+    <row r="8" ht="17" customHeight="1" spans="1:2">
+      <c r="A8" s="8">
         <v>-25043</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="9">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
+    <row r="9" ht="17" customHeight="1" spans="1:2">
+      <c r="A9" s="6">
         <v>-24650</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="7">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
+    <row r="10" ht="17" customHeight="1" spans="1:2">
+      <c r="A10" s="8">
         <v>-23393</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="9">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
+    <row r="11" ht="17" customHeight="1" spans="1:2">
+      <c r="A11" s="6">
         <v>-21456</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="7">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
+    <row r="12" ht="17" customHeight="1" spans="1:2">
+      <c r="A12" s="8">
         <v>-17444</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="9">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
+    <row r="13" ht="17" customHeight="1" spans="1:2">
+      <c r="A13" s="6">
         <v>-14116</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
+    <row r="14" ht="17" customHeight="1" spans="1:2">
+      <c r="A14" s="8">
         <v>-10386</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
+    <row r="15" ht="17" customHeight="1" spans="1:2">
+      <c r="A15" s="6">
         <v>-6409</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="7">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
+    <row r="16" ht="17" customHeight="1" spans="1:2">
+      <c r="A16" s="8">
         <v>0</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
+    <row r="17" ht="17" customHeight="1" spans="1:2">
+      <c r="A17" s="10">
         <v>6409</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="11">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1">
+    <row r="18" ht="17" customHeight="1" spans="1:2">
+      <c r="A18" s="12">
         <v>10386</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1">
+    <row r="19" ht="17" customHeight="1" spans="1:2">
+      <c r="A19" s="10">
         <v>14116</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1">
+    <row r="20" ht="17" customHeight="1" spans="1:2">
+      <c r="A20" s="12">
         <v>17444</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="13">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1">
+    <row r="21" ht="17" customHeight="1" spans="1:2">
+      <c r="A21" s="10">
         <v>21456</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="11">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1">
+    <row r="22" ht="17" customHeight="1" spans="1:2">
+      <c r="A22" s="12">
         <v>23393</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="13">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
+    <row r="23" ht="17" customHeight="1" spans="1:2">
+      <c r="A23" s="6">
         <v>24650</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="7">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1">
+    <row r="24" ht="17" customHeight="1" spans="1:2">
+      <c r="A24" s="12">
         <v>25043</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="13">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1">
+    <row r="25" ht="17" customHeight="1" spans="1:2">
+      <c r="A25" s="10">
         <v>25260</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="11">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1">
+    <row r="26" ht="17" customHeight="1" spans="1:2">
+      <c r="A26" s="12">
         <v>26570</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1">
+    <row r="27" ht="17" customHeight="1" spans="1:2">
+      <c r="A27" s="10">
         <v>28000</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="11">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1">
+    <row r="28" ht="17" customHeight="1" spans="1:2">
+      <c r="A28" s="12">
         <v>29490</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="13">
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1">
+    <row r="29" ht="17" customHeight="1" spans="1:2">
+      <c r="A29" s="10">
         <v>31120</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="11">
         <v>165</v>
       </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
     </row>
   </sheetData>
   <sortState ref="A17:B29">
@@ -2305,4 +2455,202 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:7">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:7">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="1:7">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" ht="18" customHeight="1" spans="1:7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="7" ht="15" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" ht="14.25" spans="1:2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+    </row>
+    <row r="21" ht="14.25" spans="1:2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:2">
+      <c r="A22" s="8">
+        <v>260</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:2">
+      <c r="A23" s="10">
+        <v>329</v>
+      </c>
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" ht="14.25" spans="1:2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:2">
+      <c r="A27" s="10">
+        <v>29265</v>
+      </c>
+      <c r="B27" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+    </row>
+    <row r="29" ht="14.25" spans="1:2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" ht="14.25" spans="1:2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+    </row>
+    <row r="31" ht="14.25" spans="1:2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+    </row>
+    <row r="32" ht="14.25" spans="1:2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+    </row>
+    <row r="33" ht="14.25" spans="1:2">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+    </row>
+    <row r="34" ht="14.25" spans="1:2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+    </row>
+    <row r="35" ht="14.25" spans="1:2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/sesnorVar.xlsx
+++ b/sesnorVar.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="原始数据" sheetId="1" r:id="rId1"/>
-    <sheet name="平滑后" sheetId="2" r:id="rId2"/>
+    <sheet name="FLS平滑" sheetId="2" r:id="rId2"/>
+    <sheet name="均值平滑" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Bz-5</t>
   </si>
@@ -35,6 +36,31 @@
 fls.R *= 50
 fls.Q *= 0.5</t>
   </si>
+  <si>
+    <r>
+      <t>取</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF57BACD"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF57BACD"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个点的数据进行平均</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -42,17 +68,24 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF57BACD"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <i/>
@@ -91,14 +124,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,16 +137,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,16 +184,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,15 +214,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,17 +251,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,36 +260,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,30 +305,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -308,7 +317,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,13 +359,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,73 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,37 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,41 +525,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -544,9 +542,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,17 +581,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,6 +607,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -597,10 +630,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,183 +642,171 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1354,7 +1375,1060 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr sz="1200">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 1E-08x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr sz="1200" baseline="35000">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr sz="1200">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t> - 2E-06x + 0.8431</a:t>
+                    </a:r>
+                    <a:endParaRPr sz="1200">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>FLS平滑!$A$10:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-29265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-21000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-18636</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-15690</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-12720</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8715</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1292</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-657</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-260</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3178</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8073</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12075</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12959</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15690</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18636</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29265</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>FLS平滑!$B$10:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="534990142"/>
+        <c:axId val="206058466"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="534990142"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="206058466"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="206058466"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534990142"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>磁sensor的方差</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>均值平滑!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bvar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0305676855895196"/>
+                  <c:y val="-0.0193267837010791"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr sz="1200">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 1E-08x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr sz="1200" baseline="35000">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr sz="1200">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t> + 6E-06x + 3.2221</a:t>
+                    </a:r>
+                    <a:endParaRPr sz="1200">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>均值平滑!$A$6:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-38288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-24100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-12162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-963</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>963</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3404</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5404</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8536</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11662</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12340</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>均值平滑!$B$6:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="139617123"/>
+        <c:axId val="28717553"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="139617123"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="28717553"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="28717553"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="139617123"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1910,6 +2984,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1933,6 +4039,76 @@
       <xdr:xfrm>
         <a:off x="3917950" y="1003300"/>
         <a:ext cx="5390515" cy="4438650"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12065</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3698875" y="2111375"/>
+        <a:ext cx="5914390" cy="3409315"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>530225</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2587625" y="1273175"/>
+        <a:ext cx="6543675" cy="3942715"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2228,15 +4404,15 @@
       <c r="A3" s="6">
         <v>-31120</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="9">
         <v>165</v>
       </c>
     </row>
     <row r="4" ht="17" customHeight="1" spans="1:2">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>-29490</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>138</v>
       </c>
     </row>
@@ -2244,15 +4420,15 @@
       <c r="A5" s="6">
         <v>-28000</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="9">
         <v>125</v>
       </c>
     </row>
     <row r="6" ht="17" customHeight="1" spans="1:2">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>-26570</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>100</v>
       </c>
     </row>
@@ -2260,15 +4436,15 @@
       <c r="A7" s="6">
         <v>-25260</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="9">
         <v>80</v>
       </c>
     </row>
     <row r="8" ht="17" customHeight="1" spans="1:2">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>-25043</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>93</v>
       </c>
     </row>
@@ -2276,15 +4452,15 @@
       <c r="A9" s="6">
         <v>-24650</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="9">
         <v>90</v>
       </c>
     </row>
     <row r="10" ht="17" customHeight="1" spans="1:2">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>-23393</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>73</v>
       </c>
     </row>
@@ -2292,15 +4468,15 @@
       <c r="A11" s="6">
         <v>-21456</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="9">
         <v>55</v>
       </c>
     </row>
     <row r="12" ht="17" customHeight="1" spans="1:2">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>-17444</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>36</v>
       </c>
     </row>
@@ -2308,15 +4484,15 @@
       <c r="A13" s="6">
         <v>-14116</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="9">
         <v>20</v>
       </c>
     </row>
     <row r="14" ht="17" customHeight="1" spans="1:2">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>-10386</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>15</v>
       </c>
     </row>
@@ -2324,63 +4500,63 @@
       <c r="A15" s="6">
         <v>-6409</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="9">
         <v>13</v>
       </c>
     </row>
     <row r="16" ht="17" customHeight="1" spans="1:2">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>0</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="17" ht="17" customHeight="1" spans="1:2">
-      <c r="A17" s="10">
+      <c r="A17" s="6">
         <v>6409</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="9">
         <v>13</v>
       </c>
     </row>
     <row r="18" ht="17" customHeight="1" spans="1:2">
-      <c r="A18" s="12">
+      <c r="A18" s="7">
         <v>10386</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="19" ht="17" customHeight="1" spans="1:2">
-      <c r="A19" s="10">
+      <c r="A19" s="6">
         <v>14116</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="9">
         <v>20</v>
       </c>
     </row>
     <row r="20" ht="17" customHeight="1" spans="1:2">
-      <c r="A20" s="12">
+      <c r="A20" s="7">
         <v>17444</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="8">
         <v>36</v>
       </c>
     </row>
     <row r="21" ht="17" customHeight="1" spans="1:2">
-      <c r="A21" s="10">
+      <c r="A21" s="6">
         <v>21456</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="9">
         <v>55</v>
       </c>
     </row>
     <row r="22" ht="17" customHeight="1" spans="1:2">
-      <c r="A22" s="12">
+      <c r="A22" s="7">
         <v>23393</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="8">
         <v>73</v>
       </c>
     </row>
@@ -2388,64 +4564,64 @@
       <c r="A23" s="6">
         <v>24650</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="9">
         <v>90</v>
       </c>
     </row>
     <row r="24" ht="17" customHeight="1" spans="1:2">
-      <c r="A24" s="12">
+      <c r="A24" s="7">
         <v>25043</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="8">
         <v>93</v>
       </c>
     </row>
     <row r="25" ht="17" customHeight="1" spans="1:2">
-      <c r="A25" s="10">
+      <c r="A25" s="6">
         <v>25260</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="9">
         <v>80</v>
       </c>
     </row>
     <row r="26" ht="17" customHeight="1" spans="1:2">
-      <c r="A26" s="12">
+      <c r="A26" s="7">
         <v>26570</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="27" ht="17" customHeight="1" spans="1:2">
-      <c r="A27" s="10">
+      <c r="A27" s="6">
         <v>28000</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="9">
         <v>125</v>
       </c>
     </row>
     <row r="28" ht="17" customHeight="1" spans="1:2">
-      <c r="A28" s="12">
+      <c r="A28" s="7">
         <v>29490</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="8">
         <v>138</v>
       </c>
     </row>
     <row r="29" ht="17" customHeight="1" spans="1:2">
-      <c r="A29" s="10">
+      <c r="A29" s="6">
         <v>31120</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="9">
         <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
     </row>
   </sheetData>
   <sortState ref="A17:B29">
@@ -2460,16 +4636,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2"/>
@@ -2530,121 +4706,179 @@
     </row>
     <row r="9" ht="14.25" spans="1:2">
       <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
+      <c r="B9" s="9"/>
     </row>
     <row r="10" ht="14.25" spans="1:2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="6">
+        <v>-29265</v>
+      </c>
+      <c r="B10" s="9">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" ht="14.25" spans="1:2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="6">
+        <v>-21000</v>
+      </c>
+      <c r="B11" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" ht="14.25" spans="1:2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="7">
+        <v>-18636</v>
+      </c>
+      <c r="B12" s="8">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="13" ht="14.25" spans="1:2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="6">
+        <v>-15690</v>
+      </c>
+      <c r="B13" s="9">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="14" ht="14.25" spans="1:2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="7">
+        <v>-12720</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="15" ht="14.25" spans="1:2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="6">
+        <v>-8715</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" ht="14.25" spans="1:2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="7">
+        <v>-4286</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="17" ht="14.25" spans="1:2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="6">
+        <v>-1292</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="18" ht="14.25" spans="1:2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="7">
+        <v>-657</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" ht="14.25" spans="1:2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="6">
+        <v>-260</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="20" ht="14.25" spans="1:2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="7">
+        <v>260</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="21" ht="14.25" spans="1:2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
+      <c r="A21" s="7">
+        <v>690</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="22" ht="14.25" spans="1:2">
-      <c r="A22" s="8">
-        <v>260</v>
+      <c r="A22" s="6">
+        <v>3178</v>
       </c>
       <c r="B22" s="9">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:2">
-      <c r="A23" s="10">
-        <v>329</v>
-      </c>
-      <c r="B23" s="11"/>
+      <c r="A23" s="7">
+        <v>8073</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="24" ht="14.25" spans="1:2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
+      <c r="A24" s="6">
+        <v>12075</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="25" ht="14.25" spans="1:2">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="7">
+        <v>12959</v>
+      </c>
+      <c r="B25" s="8">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="26" ht="14.25" spans="1:2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
+      <c r="A26" s="6">
+        <v>15690</v>
+      </c>
+      <c r="B26" s="9">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="27" ht="14.25" spans="1:2">
-      <c r="A27" s="10">
+      <c r="A27" s="7">
+        <v>18636</v>
+      </c>
+      <c r="B27" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:2">
+      <c r="A28" s="6">
+        <v>21000</v>
+      </c>
+      <c r="B28" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:2">
+      <c r="A29" s="7">
         <v>29265</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B29" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="1:2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-    </row>
-    <row r="29" ht="14.25" spans="1:2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-    </row>
     <row r="30" ht="14.25" spans="1:2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="9"/>
     </row>
     <row r="31" ht="14.25" spans="1:2">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
     </row>
     <row r="32" ht="14.25" spans="1:2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-    </row>
-    <row r="33" ht="14.25" spans="1:2">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
-    </row>
-    <row r="34" ht="14.25" spans="1:2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-    </row>
-    <row r="35" ht="14.25" spans="1:2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2652,5 +4886,228 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:7">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="4" ht="15" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:2">
+      <c r="A6" s="6">
+        <v>-38288</v>
+      </c>
+      <c r="B6" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:2">
+      <c r="A7" s="7">
+        <v>-24100</v>
+      </c>
+      <c r="B7" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:2">
+      <c r="A8" s="6">
+        <v>-12162</v>
+      </c>
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:2">
+      <c r="A9" s="7">
+        <v>-9300</v>
+      </c>
+      <c r="B9" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:2">
+      <c r="A10" s="6">
+        <v>-5000</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:2">
+      <c r="A11" s="7">
+        <v>-3400</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:2">
+      <c r="A12" s="7">
+        <v>-963</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:2">
+      <c r="A13" s="6">
+        <v>963</v>
+      </c>
+      <c r="B13" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:2">
+      <c r="A14" s="7">
+        <v>3404</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:2">
+      <c r="A15" s="6">
+        <v>5404</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:2">
+      <c r="A16" s="7">
+        <v>8536</v>
+      </c>
+      <c r="B16" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:2">
+      <c r="A17" s="7">
+        <v>11662</v>
+      </c>
+      <c r="B17" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:2">
+      <c r="A18" s="6">
+        <v>12340</v>
+      </c>
+      <c r="B18" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:2">
+      <c r="A19" s="7">
+        <v>24100</v>
+      </c>
+      <c r="B19" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:2">
+      <c r="A20" s="6">
+        <v>38288</v>
+      </c>
+      <c r="B20" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="9"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" ht="14.25" spans="1:2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:2">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" ht="14.25" spans="1:2">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+    </row>
+    <row r="30" ht="14.25" spans="1:2">
+      <c r="A30" s="6"/>
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" ht="14.25" spans="1:2">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+    </row>
+    <row r="32" ht="14.25" spans="1:2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>